--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc102_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc102_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1141,10 +1153,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1188,28 +1200,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1234,28 +1246,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1372,10 +1384,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1419,28 +1431,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1465,28 +1477,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1603,10 +1615,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1650,28 +1662,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1696,28 +1708,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1805,10 +1817,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1852,28 +1864,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1898,28 +1910,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2036,10 +2048,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2083,28 +2095,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2129,28 +2141,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2209,10 +2221,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2256,28 +2268,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2302,28 +2314,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2411,10 +2423,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2458,28 +2470,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2504,28 +2516,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2642,10 +2654,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2689,28 +2701,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2735,28 +2747,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2844,10 +2856,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2891,28 +2903,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2937,28 +2949,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3104,10 +3116,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3151,28 +3163,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3197,28 +3209,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3306,10 +3318,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3353,28 +3365,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3399,28 +3411,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3566,10 +3578,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3613,28 +3625,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3659,28 +3671,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3768,10 +3780,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3815,28 +3827,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3861,28 +3873,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3970,10 +3982,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4017,28 +4029,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4063,28 +4075,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4172,10 +4184,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4219,28 +4231,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4265,28 +4277,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4374,10 +4386,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4421,28 +4433,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4467,28 +4479,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4576,10 +4588,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4623,28 +4635,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4669,28 +4681,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4807,10 +4819,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4854,28 +4866,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4900,28 +4912,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5038,10 +5050,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5085,28 +5097,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5131,28 +5143,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5240,10 +5252,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5287,28 +5299,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5333,28 +5345,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5413,10 +5425,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5460,28 +5472,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5506,28 +5518,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5615,10 +5627,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5662,28 +5674,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5708,28 +5720,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5817,10 +5829,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5864,28 +5876,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5910,28 +5922,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5990,10 +6002,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6037,28 +6049,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6083,28 +6095,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6192,10 +6204,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6239,28 +6251,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6285,28 +6297,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6365,10 +6377,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6412,28 +6424,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6458,28 +6470,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6596,10 +6608,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6643,28 +6655,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6689,28 +6701,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6856,10 +6868,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6903,28 +6915,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6949,28 +6961,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7029,10 +7041,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7076,28 +7088,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7122,28 +7134,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7231,10 +7243,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7278,28 +7290,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7324,28 +7336,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7433,10 +7445,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7480,28 +7492,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7526,28 +7538,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7606,10 +7618,10 @@
       <c r="I259">
         <f>((C259-C258)^2+(D259- D258)^2)^.5</f>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K259" s="2" t="s">
+      <c r="J259" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K259" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L259" t="n">
@@ -7653,28 +7665,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="2">
+      <c r="A261" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C261" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D261" t="s" s="2">
+      <c r="C261" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7699,28 +7711,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C263" t="s" s="2">
+      <c r="C263" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D263" t="s" s="2">
+      <c r="D263" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I263" t="s" s="2">
+      <c r="I263" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7779,10 +7791,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7826,28 +7838,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7872,28 +7884,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7952,10 +7964,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -7999,28 +8011,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="2">
+      <c r="A273" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="2">
+      <c r="C273" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8045,28 +8057,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="2">
+      <c r="C275" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="2">
+      <c r="D275" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="2">
+      <c r="I275" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8183,10 +8195,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8230,28 +8242,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8276,28 +8288,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8385,10 +8397,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8432,28 +8444,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8478,28 +8490,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8558,10 +8570,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="2" t="s">
+      <c r="J292" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8605,28 +8617,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="A294" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="2">
+      <c r="C294" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8651,28 +8663,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="2">
+      <c r="C296" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="2">
+      <c r="D296" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="2">
+      <c r="I296" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8760,10 +8772,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="2" t="s">
+      <c r="J299" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8807,28 +8819,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="2">
+      <c r="A301" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="2">
+      <c r="C301" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8853,28 +8865,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="2">
+      <c r="C303" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="2">
+      <c r="D303" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="2">
+      <c r="I303" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8933,10 +8945,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="2" t="s">
+      <c r="J305" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8980,28 +8992,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="2">
+      <c r="A307" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="2">
+      <c r="C307" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9026,28 +9038,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="2">
+      <c r="C309" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="2">
+      <c r="D309" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="2">
+      <c r="I309" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9106,10 +9118,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9153,28 +9165,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="2">
+      <c r="A313" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="2">
+      <c r="C313" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9199,28 +9211,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="2">
+      <c r="C315" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="2">
+      <c r="D315" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="2">
+      <c r="I315" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9308,10 +9320,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="2" t="s">
+      <c r="J318" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9355,28 +9367,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="2">
+      <c r="A320" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="2">
+      <c r="C320" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9401,28 +9413,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="2">
+      <c r="C322" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="2">
+      <c r="D322" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="2">
+      <c r="I322" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9481,10 +9493,10 @@
       <c r="I324">
         <f>((C324-C323)^2+(D324- D323)^2)^.5</f>
       </c>
-      <c r="J324" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K324" s="2" t="s">
+      <c r="J324" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K324" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L324" t="n">
@@ -9528,28 +9540,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="2">
+      <c r="A326" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C326" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D326" t="s" s="2">
+      <c r="C326" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9574,28 +9586,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C328" t="s" s="2">
+      <c r="C328" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D328" t="s" s="2">
+      <c r="D328" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I328" t="s" s="2">
+      <c r="I328" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9683,10 +9695,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="2" t="s">
+      <c r="J331" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
